--- a/Sujeto_7/Carbohidrates.xlsx
+++ b/Sujeto_7/Carbohidrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24BA61-C3E4-CF44-80EF-BEFD00705587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADF0B0-635D-E74A-B4B1-C8F41F51EE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Value (g)</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Sujeto_7/Carbohidrates.xlsx
+++ b/Sujeto_7/Carbohidrates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADF0B0-635D-E74A-B4B1-C8F41F51EE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC164C62-CDF4-0141-A6DE-8BDC05FDDA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Value (g)</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>13.7</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>57.1</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>25.1</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>82.8</t>
+  </si>
+  <si>
+    <t>16.9</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>24.6</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>16.2</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>46.8</t>
+  </si>
+  <si>
+    <t>15.0</t>
   </si>
 </sst>
 </file>
@@ -433,9 +508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -454,344 +527,344 @@
       <c r="A2" s="2">
         <v>44358.794586689823</v>
       </c>
-      <c r="B2">
-        <v>5.4</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44358.795297685188</v>
       </c>
-      <c r="B3">
-        <v>3.9</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44359.030575810182</v>
       </c>
-      <c r="B4">
-        <v>13.7</v>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44359.094264814812</v>
       </c>
-      <c r="B5">
-        <v>1.7</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44359.532157291673</v>
       </c>
-      <c r="B6">
-        <v>10.9</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44359.533281481483</v>
       </c>
-      <c r="B7">
-        <v>57.1</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44359.533488541667</v>
       </c>
-      <c r="B8">
-        <v>0.4</v>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44359.534413425929</v>
       </c>
-      <c r="B9">
-        <v>13.7</v>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44359.534598379629</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44359.668219791667</v>
       </c>
-      <c r="B11">
-        <v>25.1</v>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44359.668456481479</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44359.755491319447</v>
       </c>
-      <c r="B13">
-        <v>40</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44359.767506018521</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44359.780444097218</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44359.941817708343</v>
       </c>
-      <c r="B16">
-        <v>42</v>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44359.944026620367</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44360.049513078702</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44360.110456828697</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44360.657077777767</v>
       </c>
-      <c r="B20">
-        <v>49</v>
+      <c r="B20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44360.657608796297</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44360.781527777777</v>
       </c>
-      <c r="B22">
-        <v>11</v>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44361.786725115737</v>
       </c>
-      <c r="B23">
-        <v>82.8</v>
+      <c r="B23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44361.826495370369</v>
       </c>
-      <c r="B24">
-        <v>16.899999999999999</v>
+      <c r="B24" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44361.833335300929</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44361.872652314807</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44362.024373726847</v>
       </c>
-      <c r="B27">
-        <v>11</v>
+      <c r="B27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44362.024720486108</v>
       </c>
-      <c r="B28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44362.124563541664</v>
       </c>
-      <c r="B29">
-        <v>25.1</v>
+      <c r="B29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44362.138259259264</v>
       </c>
-      <c r="B30">
-        <v>4.5</v>
+      <c r="B30" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44362.680958449077</v>
       </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44362.783805671294</v>
       </c>
-      <c r="B32">
-        <v>24.6</v>
+      <c r="B32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44362.787297569441</v>
       </c>
-      <c r="B33">
-        <v>27</v>
+      <c r="B33" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44362.790476967602</v>
       </c>
-      <c r="B34">
-        <v>23.9</v>
+      <c r="B34" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44363.002635416669</v>
       </c>
-      <c r="B35">
-        <v>6.9</v>
+      <c r="B35" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44363.115627199077</v>
       </c>
-      <c r="B36">
-        <v>16.2</v>
+      <c r="B36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44363.672152777777</v>
       </c>
-      <c r="B37">
-        <v>10.9</v>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44363.692408912037</v>
       </c>
-      <c r="B38">
-        <v>13.7</v>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44363.778000231483</v>
       </c>
-      <c r="B39">
-        <v>5.8</v>
+      <c r="B39" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44363.805604166657</v>
       </c>
-      <c r="B40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44363.850590046299</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44363.939126620367</v>
       </c>
-      <c r="B42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44364.045360532407</v>
       </c>
-      <c r="B43">
-        <v>46.8</v>
+      <c r="B43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44364.132453472223</v>
       </c>
-      <c r="B44">
-        <v>15</v>
+      <c r="B44" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
